--- a/docs/dtbs map.xlsx
+++ b/docs/dtbs map.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,15 @@
     <sheet name="items_meta compiler p1" sheetId="5" r:id="rId4"/>
     <sheet name="items_meta compiler p2" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_AMO_UniqueIdentifier" hidden="1">"'d1dfc280-5b5d-4bae-b460-6b872f97c11b'"</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="269">
   <si>
     <t>id</t>
   </si>
@@ -446,9 +449,6 @@
     <t>PSDS</t>
   </si>
   <si>
-    <t>TS</t>
-  </si>
-  <si>
     <t>Package Info</t>
   </si>
   <si>
@@ -813,6 +813,21 @@
   </si>
   <si>
     <t>PS&amp;DS S-Curve</t>
+  </si>
+  <si>
+    <t>ET &amp; DE</t>
+  </si>
+  <si>
+    <t>S&amp;TC &amp; PSD/APG</t>
+  </si>
+  <si>
+    <t>ICSS &amp; CMMS</t>
+  </si>
+  <si>
+    <t>TW &amp; MV</t>
+  </si>
+  <si>
+    <t>COMMS &amp; ITS</t>
   </si>
 </sst>
 </file>
@@ -856,7 +871,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -947,6 +962,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -975,7 +1008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1032,6 +1065,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3981,10 +4023,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A2:Q55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -3998,441 +4040,207 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C2" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C3" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C4" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C5" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C6" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C7" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C8" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="24">
-        <v>1</v>
-      </c>
-      <c r="E1" s="24">
+      <c r="C10" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
         <v>2</v>
       </c>
-      <c r="F1" s="24">
+      <c r="F10" s="24">
         <v>3</v>
       </c>
-      <c r="G1" s="24">
+      <c r="G10" s="24">
         <v>4</v>
       </c>
-      <c r="H1" s="24">
+      <c r="H10" s="24">
         <v>4</v>
       </c>
-      <c r="I1" s="24">
+      <c r="I10" s="24">
         <v>5</v>
       </c>
-      <c r="J1" s="24">
+      <c r="J10" s="24">
         <v>5</v>
       </c>
-      <c r="K1" s="24">
+      <c r="K10" s="24">
         <v>6</v>
       </c>
-      <c r="L1" s="24">
+      <c r="L10" s="24">
         <v>7</v>
       </c>
-      <c r="M1" s="24">
+      <c r="M10" s="24">
         <v>9</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="20">
-        <f>SUM(D5:D45)</f>
-        <v>10</v>
-      </c>
-      <c r="E4" s="20">
-        <f t="shared" ref="E4:M4" si="0">SUM(E5:E45)</f>
-        <v>8</v>
-      </c>
-      <c r="F4" s="20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G4" s="20">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="H4" s="20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I4" s="20">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="J4" s="20">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K4" s="20">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="L4" s="20">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="M4" s="20">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" s="22">
-        <f>SUM(D5:Q5)</f>
-        <v>25</v>
-      </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19">
-        <v>7</v>
-      </c>
-      <c r="J5" s="19">
-        <v>1</v>
-      </c>
-      <c r="K5" s="19">
-        <v>11</v>
-      </c>
-      <c r="L5" s="19">
-        <v>1</v>
-      </c>
-      <c r="M5" s="19">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="22">
-        <f t="shared" ref="C6:C31" si="1">SUM(D6:Q6)</f>
-        <v>13</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19">
-        <v>1</v>
-      </c>
-      <c r="F6" s="19">
-        <v>1</v>
-      </c>
-      <c r="G6" s="19">
-        <v>1</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19">
-        <v>7</v>
-      </c>
-      <c r="J6" s="19">
-        <v>1</v>
-      </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19">
-        <v>1</v>
-      </c>
-      <c r="M6" s="19">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="22">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D7" s="19">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19">
-        <v>7</v>
-      </c>
-      <c r="J7" s="19">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19">
-        <v>1</v>
-      </c>
-      <c r="M7" s="19">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="22">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="D8" s="19">
-        <v>1</v>
-      </c>
-      <c r="E8" s="19">
-        <v>1</v>
-      </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19">
-        <v>1</v>
-      </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19">
-        <v>7</v>
-      </c>
-      <c r="J8" s="19">
-        <v>1</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19">
-        <v>1</v>
-      </c>
-      <c r="M8" s="19">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="22">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19">
-        <v>7</v>
-      </c>
-      <c r="J9" s="19">
-        <v>1</v>
-      </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19">
-        <v>1</v>
-      </c>
-      <c r="M9" s="19">
-        <v>1</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+    <row r="11" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>123</v>
+      </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="A13" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="20">
+        <f>SUM(D14:D54)</f>
+        <v>10</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" ref="E13:M13" si="0">SUM(E14:E54)</f>
+        <v>8</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="L13" s="20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="M13" s="20">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -4441,24 +4249,40 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="23"/>
       <c r="B14" s="23" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C14" s="22">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>SUM(D14:Q14)</f>
+        <v>25</v>
       </c>
       <c r="D14" s="19">
         <v>1</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="E14" s="19">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1</v>
+      </c>
       <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
+      <c r="I14" s="19">
+        <v>7</v>
+      </c>
+      <c r="J14" s="19">
+        <v>1</v>
+      </c>
+      <c r="K14" s="19">
+        <v>11</v>
+      </c>
+      <c r="L14" s="19">
+        <v>1</v>
+      </c>
+      <c r="M14" s="19">
+        <v>1</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -4467,24 +4291,36 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="23"/>
       <c r="B15" s="23" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C15" s="22">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D15" s="19">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
+        <f t="shared" ref="C15:C40" si="1">SUM(D15:Q15)</f>
+        <v>13</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
       <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="I15" s="19">
+        <v>7</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
       <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="L15" s="19">
+        <v>1</v>
+      </c>
+      <c r="M15" s="19">
+        <v>1</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
@@ -4493,24 +4329,36 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="23" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C16" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D16" s="19">
         <v>1</v>
       </c>
-      <c r="E16" s="19"/>
+      <c r="E16" s="19">
+        <v>1</v>
+      </c>
       <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+      <c r="G16" s="19">
+        <v>1</v>
+      </c>
       <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="I16" s="19">
+        <v>7</v>
+      </c>
+      <c r="J16" s="19">
+        <v>1</v>
+      </c>
       <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="L16" s="19">
+        <v>1</v>
+      </c>
+      <c r="M16" s="19">
+        <v>1</v>
+      </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
@@ -4519,24 +4367,36 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="23"/>
       <c r="B17" s="23" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C17" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D17" s="19">
         <v>1</v>
       </c>
-      <c r="E17" s="19"/>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
       <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
       <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="I17" s="19">
+        <v>7</v>
+      </c>
+      <c r="J17" s="19">
+        <v>1</v>
+      </c>
       <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
+      <c r="L17" s="19">
+        <v>1</v>
+      </c>
+      <c r="M17" s="19">
+        <v>1</v>
+      </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -4545,25 +4405,35 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="23"/>
       <c r="B18" s="23" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C18" s="22">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D18" s="19"/>
+        <v>14</v>
+      </c>
+      <c r="D18" s="19">
+        <v>1</v>
+      </c>
       <c r="E18" s="19">
         <v>1</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="19">
+        <v>1</v>
+      </c>
       <c r="G18" s="19">
         <v>1</v>
       </c>
       <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="I18" s="19">
+        <v>7</v>
+      </c>
+      <c r="J18" s="19">
+        <v>1</v>
+      </c>
       <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="L18" s="19">
+        <v>1</v>
+      </c>
       <c r="M18" s="19">
         <v>1</v>
       </c>
@@ -4574,17 +4444,13 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="23"/>
-      <c r="B19" s="23" t="s">
-        <v>155</v>
-      </c>
+      <c r="B19" s="23"/>
       <c r="C19" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="19"/>
-      <c r="E19" s="19">
-        <v>1</v>
-      </c>
+      <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
@@ -4600,20 +4466,16 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="23"/>
-      <c r="B20" s="23" t="s">
-        <v>157</v>
-      </c>
+      <c r="B20" s="23"/>
       <c r="C20" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="19">
-        <v>1</v>
-      </c>
+      <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
@@ -4625,21 +4487,19 @@
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23" t="s">
-        <v>158</v>
-      </c>
+      <c r="A21" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="23"/>
       <c r="C21" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="19">
-        <v>1</v>
-      </c>
+      <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
@@ -4653,19 +4513,19 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="B22" s="23" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C22" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D22" s="19"/>
+      <c r="D22" s="19">
+        <v>1</v>
+      </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
-      <c r="H22" s="19">
-        <v>1</v>
-      </c>
+      <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
@@ -4679,20 +4539,20 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="23"/>
       <c r="B23" s="23" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C23" s="22">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D23" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="D23" s="19">
+        <v>1</v>
+      </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="19">
-        <v>7</v>
-      </c>
+      <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
@@ -4705,20 +4565,20 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="23"/>
       <c r="B24" s="23" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C24" s="22">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D24" s="19"/>
+        <v>1</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1</v>
+      </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="19">
-        <v>7</v>
-      </c>
+      <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
@@ -4731,21 +4591,21 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="23"/>
       <c r="B25" s="23" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C25" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D25" s="19"/>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
-      <c r="J25" s="19">
-        <v>1</v>
-      </c>
+      <c r="J25" s="19"/>
       <c r="K25" s="19"/>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
@@ -4757,21 +4617,21 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="23"/>
       <c r="B26" s="23" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C26" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D26" s="19"/>
+      <c r="D26" s="19">
+        <v>1</v>
+      </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="19">
-        <v>1</v>
-      </c>
+      <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
@@ -4783,24 +4643,28 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="23"/>
       <c r="B27" s="23" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="C27" s="22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="E27" s="19">
+        <v>1</v>
+      </c>
       <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
+      <c r="G27" s="19">
+        <v>1</v>
+      </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="19">
-        <v>1</v>
-      </c>
+      <c r="J27" s="19"/>
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
+      <c r="M27" s="19">
+        <v>1</v>
+      </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -4809,22 +4673,22 @@
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="23"/>
       <c r="B28" s="23" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C28" s="22">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="E28" s="19">
+        <v>1</v>
+      </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
-      <c r="K28" s="19">
-        <v>11</v>
-      </c>
+      <c r="K28" s="19"/>
       <c r="L28" s="19"/>
       <c r="M28" s="19"/>
       <c r="N28" s="1"/>
@@ -4835,22 +4699,22 @@
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="23"/>
       <c r="B29" s="23" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C29" s="22">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
+      <c r="H29" s="19">
+        <v>1</v>
+      </c>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
-      <c r="K29" s="19">
-        <v>11</v>
-      </c>
+      <c r="K29" s="19"/>
       <c r="L29" s="19"/>
       <c r="M29" s="19"/>
       <c r="N29" s="1"/>
@@ -4861,7 +4725,7 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="23"/>
       <c r="B30" s="23" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C30" s="22">
         <f t="shared" si="1"/>
@@ -4871,13 +4735,13 @@
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+      <c r="H30" s="19">
+        <v>1</v>
+      </c>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
-      <c r="L30" s="19">
-        <v>1</v>
-      </c>
+      <c r="L30" s="19"/>
       <c r="M30" s="19"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -4886,16 +4750,20 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="23"/>
-      <c r="B31" s="23"/>
+      <c r="B31" s="23" t="s">
+        <v>158</v>
+      </c>
       <c r="C31" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="H31" s="19">
+        <v>1</v>
+      </c>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
@@ -4907,167 +4775,236 @@
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="25" t="s">
-        <v>172</v>
-      </c>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="22">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19">
+        <v>7</v>
+      </c>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="C33" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1">
-        <v>1</v>
-      </c>
-      <c r="I33" s="1">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="22">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1">
-        <v>11</v>
-      </c>
-      <c r="L33" s="1">
-        <v>1</v>
-      </c>
-      <c r="M33" s="1">
-        <v>1</v>
-      </c>
-      <c r="N33" s="1">
-        <f>SUM(D33:M33)</f>
-        <v>26</v>
-      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19">
+        <v>7</v>
+      </c>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19">
+        <v>1</v>
+      </c>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="1"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19">
+        <v>1</v>
+      </c>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19">
+        <v>1</v>
+      </c>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="22">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19">
+        <v>11</v>
+      </c>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="22">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19">
+        <v>11</v>
+      </c>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19">
+        <v>1</v>
+      </c>
+      <c r="M39" s="19"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -5078,44 +5015,61 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+      <c r="N41" s="25" t="s">
+        <v>171</v>
+      </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C42" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>7</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>11</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1">
+        <f>SUM(D42:M42)</f>
+        <v>26</v>
+      </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="3:17" x14ac:dyDescent="0.2">
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -5131,7 +5085,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -5147,7 +5101,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -5163,13 +5117,157 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D4:M31">
+  <conditionalFormatting sqref="D13:M40">
     <cfRule type="containsBlanks" dxfId="1" priority="25">
-      <formula>LEN(TRIM(D4))=0</formula>
+      <formula>LEN(TRIM(D13))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:M4">
+  <conditionalFormatting sqref="D13:M13">
     <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
@@ -5183,7 +5281,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C31">
+  <conditionalFormatting sqref="C14:C40">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -5197,9 +5295,9 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:M31">
+  <conditionalFormatting sqref="D14:M40">
     <cfRule type="notContainsBlanks" dxfId="0" priority="26">
-      <formula>LEN(TRIM(D5))&gt;0</formula>
+      <formula>LEN(TRIM(D14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5216,7 +5314,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D4:M4</xm:sqref>
+          <xm:sqref>D13:M13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{084FED15-98D4-4995-A091-E90B96DB8620}">
@@ -5227,7 +5325,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C5:C31</xm:sqref>
+          <xm:sqref>C14:C40</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5240,7 +5338,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -5333,13 +5431,13 @@
         <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3">
         <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H3">
         <v>154</v>
@@ -5348,10 +5446,10 @@
         <v>108</v>
       </c>
       <c r="J3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L3">
         <v>61</v>
@@ -5386,13 +5484,13 @@
         <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E4">
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H4">
         <v>155</v>
@@ -5401,10 +5499,10 @@
         <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L4">
         <v>62</v>
@@ -5439,13 +5537,13 @@
         <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E5">
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H5">
         <v>156</v>
@@ -5454,10 +5552,10 @@
         <v>110</v>
       </c>
       <c r="J5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L5">
         <v>63</v>
@@ -5492,13 +5590,13 @@
         <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E6">
         <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H6">
         <v>157</v>
@@ -5507,10 +5605,10 @@
         <v>111</v>
       </c>
       <c r="J6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L6">
         <v>64</v>
@@ -5545,13 +5643,13 @@
         <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E7">
         <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H7">
         <v>158</v>
@@ -5560,10 +5658,10 @@
         <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L7">
         <v>65</v>
@@ -5598,13 +5696,13 @@
         <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8">
         <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H8">
         <v>159</v>
@@ -5613,10 +5711,10 @@
         <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L8">
         <v>66</v>
@@ -5651,13 +5749,13 @@
         <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9">
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H9">
         <v>160</v>
@@ -5666,10 +5764,10 @@
         <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L9">
         <v>67</v>
@@ -5704,13 +5802,13 @@
         <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E10">
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H10">
         <v>152</v>
@@ -5719,10 +5817,10 @@
         <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L10">
         <v>59</v>
@@ -5757,13 +5855,13 @@
         <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11">
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H11">
         <v>142</v>
@@ -5772,10 +5870,10 @@
         <v>88</v>
       </c>
       <c r="J11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L11">
         <v>49</v>
@@ -5810,13 +5908,13 @@
         <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E12">
         <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H12">
         <v>143</v>
@@ -5825,10 +5923,10 @@
         <v>86</v>
       </c>
       <c r="J12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L12">
         <v>50</v>
@@ -5863,13 +5961,13 @@
         <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E13">
         <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H13">
         <v>144</v>
@@ -5878,10 +5976,10 @@
         <v>94</v>
       </c>
       <c r="J13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L13">
         <v>51</v>
@@ -5913,16 +6011,16 @@
         <v>98</v>
       </c>
       <c r="B14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" t="s">
         <v>184</v>
-      </c>
-      <c r="C14" t="s">
-        <v>185</v>
       </c>
       <c r="E14">
         <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H14">
         <v>145</v>
@@ -5931,10 +6029,10 @@
         <v>98</v>
       </c>
       <c r="J14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L14">
         <v>52</v>
@@ -5966,16 +6064,16 @@
         <v>99</v>
       </c>
       <c r="B15" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" t="s">
         <v>186</v>
-      </c>
-      <c r="C15" t="s">
-        <v>187</v>
       </c>
       <c r="E15">
         <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H15">
         <v>146</v>
@@ -5984,10 +6082,10 @@
         <v>99</v>
       </c>
       <c r="J15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L15">
         <v>53</v>
@@ -6019,16 +6117,16 @@
         <v>100</v>
       </c>
       <c r="B16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" t="s">
         <v>188</v>
-      </c>
-      <c r="C16" t="s">
-        <v>189</v>
       </c>
       <c r="E16">
         <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H16">
         <v>147</v>
@@ -6037,10 +6135,10 @@
         <v>100</v>
       </c>
       <c r="J16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L16">
         <v>54</v>
@@ -6072,16 +6170,16 @@
         <v>101</v>
       </c>
       <c r="B17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" t="s">
         <v>190</v>
-      </c>
-      <c r="C17" t="s">
-        <v>191</v>
       </c>
       <c r="E17">
         <v>57</v>
       </c>
       <c r="F17" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H17">
         <v>148</v>
@@ -6090,10 +6188,10 @@
         <v>101</v>
       </c>
       <c r="J17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K17" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L17">
         <v>55</v>
@@ -6125,16 +6223,16 @@
         <v>102</v>
       </c>
       <c r="B18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C18" t="s">
         <v>192</v>
-      </c>
-      <c r="C18" t="s">
-        <v>193</v>
       </c>
       <c r="E18">
         <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H18">
         <v>149</v>
@@ -6143,10 +6241,10 @@
         <v>102</v>
       </c>
       <c r="J18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L18">
         <v>56</v>
@@ -6178,16 +6276,16 @@
         <v>103</v>
       </c>
       <c r="B19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" t="s">
         <v>194</v>
-      </c>
-      <c r="C19" t="s">
-        <v>195</v>
       </c>
       <c r="E19">
         <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H19">
         <v>150</v>
@@ -6196,10 +6294,10 @@
         <v>103</v>
       </c>
       <c r="J19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L19">
         <v>57</v>
@@ -6231,16 +6329,16 @@
         <v>104</v>
       </c>
       <c r="B20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" t="s">
         <v>196</v>
-      </c>
-      <c r="C20" t="s">
-        <v>197</v>
       </c>
       <c r="E20">
         <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H20">
         <v>151</v>
@@ -6249,10 +6347,10 @@
         <v>104</v>
       </c>
       <c r="J20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L20">
         <v>58</v>
@@ -6284,16 +6382,16 @@
         <v>105</v>
       </c>
       <c r="B21" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" t="s">
         <v>198</v>
-      </c>
-      <c r="C21" t="s">
-        <v>199</v>
       </c>
       <c r="E21">
         <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H21">
         <v>153</v>
@@ -6302,10 +6400,10 @@
         <v>92</v>
       </c>
       <c r="J21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L21">
         <v>60</v>
@@ -6337,16 +6435,16 @@
         <v>106</v>
       </c>
       <c r="B22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" t="s">
         <v>200</v>
-      </c>
-      <c r="C22" t="s">
-        <v>201</v>
       </c>
       <c r="E22">
         <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H22">
         <v>161</v>
@@ -6355,10 +6453,10 @@
         <v>115</v>
       </c>
       <c r="J22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L22">
         <v>68</v>
@@ -6390,16 +6488,16 @@
         <v>107</v>
       </c>
       <c r="B23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" t="s">
         <v>202</v>
-      </c>
-      <c r="C23" t="s">
-        <v>203</v>
       </c>
       <c r="E23">
         <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H23">
         <v>162</v>
@@ -6408,10 +6506,10 @@
         <v>105</v>
       </c>
       <c r="J23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L23">
         <v>69</v>
@@ -6443,16 +6541,16 @@
         <v>108</v>
       </c>
       <c r="B24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" t="s">
         <v>204</v>
-      </c>
-      <c r="C24" t="s">
-        <v>205</v>
       </c>
       <c r="E24">
         <v>64</v>
       </c>
       <c r="F24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H24">
         <v>163</v>
@@ -6461,10 +6559,10 @@
         <v>107</v>
       </c>
       <c r="J24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L24">
         <v>70</v>
@@ -6496,16 +6594,16 @@
         <v>109</v>
       </c>
       <c r="B25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" t="s">
         <v>206</v>
-      </c>
-      <c r="C25" t="s">
-        <v>207</v>
       </c>
       <c r="E25">
         <v>65</v>
       </c>
       <c r="F25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H25">
         <v>164</v>
@@ -6514,10 +6612,10 @@
         <v>106</v>
       </c>
       <c r="J25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L25">
         <v>71</v>
@@ -6549,16 +6647,16 @@
         <v>110</v>
       </c>
       <c r="B26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" t="s">
         <v>208</v>
-      </c>
-      <c r="C26" t="s">
-        <v>209</v>
       </c>
       <c r="E26">
         <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H26">
         <v>136</v>
@@ -6567,10 +6665,10 @@
         <v>97</v>
       </c>
       <c r="J26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L26">
         <v>43</v>
@@ -6602,16 +6700,16 @@
         <v>111</v>
       </c>
       <c r="B27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C27" t="s">
         <v>210</v>
-      </c>
-      <c r="C27" t="s">
-        <v>211</v>
       </c>
       <c r="E27">
         <v>67</v>
       </c>
       <c r="F27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H27">
         <v>137</v>
@@ -6620,10 +6718,10 @@
         <v>87</v>
       </c>
       <c r="J27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L27">
         <v>44</v>
@@ -6655,16 +6753,16 @@
         <v>112</v>
       </c>
       <c r="B28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C28" t="s">
         <v>212</v>
-      </c>
-      <c r="C28" t="s">
-        <v>213</v>
       </c>
       <c r="E28">
         <v>68</v>
       </c>
       <c r="F28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H28">
         <v>138</v>
@@ -6673,10 +6771,10 @@
         <v>89</v>
       </c>
       <c r="J28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L28">
         <v>45</v>
@@ -6708,16 +6806,16 @@
         <v>113</v>
       </c>
       <c r="B29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" t="s">
         <v>214</v>
-      </c>
-      <c r="C29" t="s">
-        <v>215</v>
       </c>
       <c r="E29">
         <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H29">
         <v>139</v>
@@ -6726,10 +6824,10 @@
         <v>96</v>
       </c>
       <c r="J29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L29">
         <v>46</v>
@@ -6761,16 +6859,16 @@
         <v>114</v>
       </c>
       <c r="B30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" t="s">
         <v>216</v>
-      </c>
-      <c r="C30" t="s">
-        <v>217</v>
       </c>
       <c r="E30">
         <v>70</v>
       </c>
       <c r="F30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H30">
         <v>140</v>
@@ -6779,10 +6877,10 @@
         <v>91</v>
       </c>
       <c r="J30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L30">
         <v>47</v>
@@ -6814,16 +6912,16 @@
         <v>115</v>
       </c>
       <c r="B31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" t="s">
         <v>218</v>
-      </c>
-      <c r="C31" t="s">
-        <v>219</v>
       </c>
       <c r="E31">
         <v>71</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H31">
         <v>141</v>
@@ -6832,10 +6930,10 @@
         <v>90</v>
       </c>
       <c r="J31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L31">
         <v>48</v>
@@ -6918,16 +7016,16 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" t="s">
         <v>250</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>251</v>
-      </c>
-      <c r="H4" t="s">
-        <v>252</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -6941,16 +7039,16 @@
         <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G5" t="s">
         <v>253</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>254</v>
-      </c>
-      <c r="H5" t="s">
-        <v>255</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -6964,16 +7062,16 @@
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" t="s">
         <v>256</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>257</v>
-      </c>
-      <c r="H6" t="s">
-        <v>258</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -6987,16 +7085,16 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" t="s">
         <v>259</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>260</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>261</v>
-      </c>
-      <c r="H7" t="s">
-        <v>262</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -7010,16 +7108,16 @@
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" t="s">
         <v>263</v>
-      </c>
-      <c r="G8" t="s">
-        <v>257</v>
-      </c>
-      <c r="H8" t="s">
-        <v>264</v>
       </c>
       <c r="I8">
         <v>0</v>
